--- a/기업분석/기업분석보고서_에스앤에스텍.xlsx
+++ b/기업분석/기업분석보고서_에스앤에스텍.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_project\tele_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_project\tele_bot\기업분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B149F-71B9-45D7-AC86-6054D7994C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F5BDEC4-A2BE-4B50-BB71-245170A21CD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="투자아이디어" sheetId="9" r:id="rId1"/>
-    <sheet name="연간요약" sheetId="3" r:id="rId2"/>
-    <sheet name="분기요약" sheetId="8" r:id="rId3"/>
-    <sheet name="연간손익" sheetId="2" r:id="rId4"/>
-    <sheet name="연간재무" sheetId="1" r:id="rId5"/>
-    <sheet name="연간현금" sheetId="4" r:id="rId6"/>
-    <sheet name="기본정보" sheetId="5" r:id="rId7"/>
-    <sheet name="분기손익" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId9"/>
+    <sheet name="내용정리" sheetId="10" r:id="rId1"/>
+    <sheet name="투자아이디어" sheetId="9" r:id="rId2"/>
+    <sheet name="연간요약" sheetId="3" r:id="rId3"/>
+    <sheet name="분기요약" sheetId="8" r:id="rId4"/>
+    <sheet name="연간손익" sheetId="2" r:id="rId5"/>
+    <sheet name="연간재무" sheetId="1" r:id="rId6"/>
+    <sheet name="연간현금" sheetId="4" r:id="rId7"/>
+    <sheet name="기본정보" sheetId="5" r:id="rId8"/>
+    <sheet name="분기손익" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="234">
   <si>
     <t>매출액(수익)</t>
   </si>
@@ -621,13 +621,241 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업이익YoY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 SKC는 블랭크마스크 시장 진입을 공식화했다. SKC는 ArF용 블랭크마스크를 올해 안에 양산할 계획을 밝혔다. 에스앤에스텍과 경쟁구도다. 업계 관계자는 "계열사인 SK하이닉스에 우선 공급할 가능성이 높지만 아직 품질인증 단계를 거친 단계도 아닌 것으로 안다"며 "설비만 갖춘 상태여서 당분간 시간이 필요할 것"이라고 전했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과거 블랭크마스크는 호야, 울코트 등 일본 기업의 전유물이었다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해는 극자외선(EUV) 블랭크마스크·펠리클로 주목받고 있다. EUV 공정은 기존의 심자외선(DUV) 공정보다 파장이 짧은 극자외선을 이용해 7나노 이하 초미세 반도체 회로를 제조하는 데 필수적이다. 현재 일본 기업 호야와 미쓰이화학이 시장을 각각 점유하고 있는 만큼 기술 의존도가 높은 분야다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랭크마스크 1장은 포토마스크 1장과 대응되며, 노광이 1번 진행될 때 마다 1장의 포토마스크가 필요하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체가 선단화되며, 레이어 수는 증가하고 가가 레이어별로 시행해야 되는 노광공정의 횟수도 증가 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실제로 TSMC 의 경우 사용되는 포토마스크 수가 16nm 기준으로 10nm 일때 1.13배, 7nm 일때는 1.45배 증가 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">파운드리들의 EUV를 통해 노광 공정의 횟수를 줄이려는 노력 중이다. DUV가 멀티패터닝을 통해 회로를 그리지만 EUV는 한번에 그릴수 있다. TSMC 5nm 일때 DUV 사용시 1.91배 증가(16nm 대비) 하지만 EUV 도입하여 1.35배로 줄였다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUV 장비 한대당 5000억이고, EUV 블랭크마스크는 DUV 대비 10배 이상 비싸다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3nm 이하부터는 EUV 멀티패터닝이 도입이 논의되고, 실제로 TSMC의 경우 3nm 부터 포토마스크 수가 90개 수준으로 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUV가 도입되고 있음에도 필요한 마스크는 줄지 않고 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스앤에스텍은 EUV 블랭크마스크 개발 완료 후 검사 단계에 있으며, 양산 준비까지 마친 새로운 사업에 진입 준비 중이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스앤에스텍의 주요 고객사는 SMIC, 삼성전자, TSMC 다. 특히 동사는 SMIC향 매출 비중이 반도체용 블랭크마스크 매출 내에서 가장 높으며, 경쟁사들 대비 중국향 노출도가 가장 높다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쟁사는 HOYA와 AGC의 경우 TSMC, 삼성전자향 매출 비중이 더 높다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전세계 블랭크마스크 시장은 동사를 포함하여 HOYA, AGC, 신에츠가 과점하고 있으며, EUV 블랭크마스크는 HOYA가 70% 이상 과점 중이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사는 중국 시장 내에서 반도체용 블랭크마스크 점유율 1위다. 중국 시장 내 반도체 블랭크마스크 점유율 40% 차지하고 있다. HOYA가 EUV 블랭크 마스크와 TSMC 향 공급에 집중함하고 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국은 현재 DUV 블랭크마스크 공급 부족에 시달리고 있다. 미국의 규제로 중국으로 EUV 수출이 금지되어 DUV 장비만으로 선단화가 필요하여 멀터패터닝을 극대화할 수 밖에 없어 TSMC나 삼성전자보다 압도적으로 노광 횟수가 많다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중국 내 AI CAPEX 투자가 더욱 가속화되는 만큼 중국 내 최대 파운드리인 SMIC 의 CAPA 가 급증하며 새로운 팹리스가 생겨나고 있다. SMIC는 24년에만 전체 CAPA 17%를 증설하였고, 10년동안 CAGR 17% 성장했다. Q증가뿐 아니라 선단화 되면서 높은 ASP의 블랭크마스크 수요도 증가했다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FPD용 블랭크마스크는 동사가 시장 점유율 35%로 전세계 시장 점유율 1위다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에스앤에스택 매출의 반도체용 32%, FPD는 68% 점유 중이다. 반도체용은 24년 YOY 24% 성장, FPD용은 12.7% 성장했다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 1위는 중국 파운드리 SMIC다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPD용 블랭크마스크 사업부 내 중국 매출 비중은 45% 수준이며, 중국쪽 23년 YOY 46%, 24년 YOY 47%다. 핵심고객사는 BOE의 OLED 생산라인 증설이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPM(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23년, 24년 OPM은 16% 수준인데 25년 1Q의 OPM은 20%를 찍었는데 그 이유는 DUV 선단화됨에 따라 높은 ASP 블랭크 마스크 비중이 늘었고, 중국의 블랭크마스크 공급부족으로 동사의 공격적인 판가 인상(30%인상)을 했기 때문이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21년부터 EUV 블랭크마스크 양산을 위해 용인 공장에 CAPEX 집행했던 건 26년부터 본격적인 매출이 나올것으로 예상된다. 레버리지 효과가 극대화 될것으로 본다. EUV 블랭크마스크는 DUV 대비 7배 비싸다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 가동율은 82%수준이지만 가동 시간 기준으로 작성된 부분으로, 동사의 IR담당과 소통 시 26년까지 예상되는 중국의 물량 증가를 충분히 소화 할수 있는 수준이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현금은 750억 보유중으로 언제든지 증설이 가능하다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24년 11월 정수홍 회장은 11만주 장내 매수 후 12/31일 아들한테 10만주 증여했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">25년 중국향 매출이 폭발적으로 성장하는 원년이며, 26년부터 EUV향 매출이 숫자로 찍힐 예정이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중국은 자국 파운드리 확보를 위해 정부는 반도체 굴기 펀드의 67%에 해당하는 금액을 파운드리에 투입했으며, 27년까지 건설될 35개의 신규 팹 중 16개가 중국으로 지속적인 CAPA 증가가 예정된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23년 공정별 장비 수입중 노광장비 비중은 25.9%이며, 반도체 장비 중 가장 많은 금액이 투입되었고, 22년 78대 대비 23년 176다. 노광 장비 반영 후 배치까지 3개월, 양산까지 6개월 소요된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SMIC는 23년 한 해 동안 9만장 증가, 24년에는 14만장 증가하였다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASML의 24년 중국향 매출이 40% 증가했다. 중국이 ASML 노광 장비 수입은 24년 274대로 파악된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">25년은 24년과 유사한 수준으로 예상된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화웨이의 Ascend 910C, 910B 칩 10만개, 30만개 늘렸다. 920C칩은 하반기내 양산 예정이고, 최소 두배 이상의 선단화 공정 가동률 증가 예상된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">딥시크-R2로 생긴 자국 AI칩에 대한 믿음은 SMIC의 선단공정 라인의 가동률 증가로 나타날 것이다. 딥시크-R2는 910B만을 사용해 구현된 모델이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMIC는 작년 3월 화웨이와 협력하여 쿼드러플 패터닝을 통한 5nm 개발 특허를 등록하였으며, 올해 7nm, 6nm 공정에 이어 내년에 5nm 공정 양산 돌입을 발표했다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7nm 와 6nm는 멀티패터닝이지만 5nm 이하는 쿼드러플 패터닝이 필요하기에 포토마스크가 최소 2배 필요하다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랭크마스크는 로우베레(Binary), 미드레벨(PSM), 하이레벨(Hard Mak PSM) 으로 나뉜다. 블랭크마스크는 호야, ULCOAT 양강구도에서 02년 에스앤에스텍, 09년 신에츠화학이 진입하면서 4강 구도로 15년 유지되고 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Arf 광원을 사용하는 DUV장비에 필요한 미드레벨에 들어서부터 DUV광원별 광학적 노이즈로 인한 기술적 장벽이 구추고딘다. ArFi 광원에 요구되는 하이레벨 블랭크마스크 제작 가능업체는 동사를 포함해 소수에 불과하다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">블랭크마스크 신규 공급사의 진입장벽은 매우 높다. 개발에 성공하더라도, 미세한 차이로 생산한 웨이퍼 전량 폐기로 이어질수 있다. 그래서 레퍼런스를 보유하지 않은 업체는 신규 진입이 제한되며 기존 벤더사의 점유율은 지속적으로 증가한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자는 3월 호야가 독점하던 ArF 블랭크마스크의 벤더 다변화를 추진하며, 기존 레퍼런스를 보유한 동사와의 협력을 결정했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주요 포토마스크 3사의 가동률은 3년째 풀 가동 중이다. 포토마스크 1위 업체 Photronics 는 올해 IR을 통해 중국 파운드리의 수요가 올해에도 예상을 초과한다고 밝혔고, 공급부족이 지속될 것이라고 언급했다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선단화에 따른 하이레벨 블랭크마스크의 수요증가로 Mixed ASP 또한 개선되고 있다. 동사는 22년부터 3년에 걸쳐 Mixed ASP는 9.5%, 12.6%, 10.2% 증가 했다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DUV 블랭크마스크의 ASP는 약 1000만원, EUV는 약 7000만원이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">동사는 EUV 블랭크마스크를 제조하기 위해 증착 장비인 Veeco사의 장비를 2022년 말에 구입해고 최근 Lasertec 의 검사 장비를 도입하면서 양산이 임박했다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인 공장에 Lasertec 검사 장비는 올해 말까지 양산 준비 예정이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">삼성전자와 인텔 복수의 고객사들과 퀄 테스트 진행 중이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EUV 장비는 TSMC 가 210대, 삼성전자가 55대이며, 삼성전자 EUV블랭크마스크를 구입하는데 약 4500억 지출하는 것으로 추정된다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국 생산CAPA 증가에 따른 Q증가, 그리고 제품 Mixed에 따른 P증가 = OPM 20% 이상 유지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUV 블랭크마스크 양산이 26년도 예상되며, DUV보다 ASP가 7배 비싸 영업레버리지 효과 예상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랭크마스크는 진입장벽이 높아 15년째 4강 구도 유지 중(호야, 아사이글라스, 에스앤에스텍, 신에츠화학)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선단화 될수록 블랭크마스크 사용량은 증가함. 중국 EUV 도입이 안되어 DUV 장비로 멀티패터닝, EUV도 선단 될수록 멀티패터닝 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중국내 DUV블랭크마스크 점유율 1위 중, FPD 블랭크마스크 점유율 1위 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0.0"/>
@@ -1440,7 +1668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1729,81 +1957,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1840,8 +1993,101 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1877,6 +2123,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1952,10 +2199,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>분기요약!$B$2:$Y$2</c:f>
+              <c:f>분기요약!$B$2:$Z$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2019.03</c:v>
                 </c:pt>
@@ -2027,16 +2274,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2024.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>분기요약!$B$9:$Y$9</c:f>
+              <c:f>분기요약!$B$9:$Z$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2108,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.70575221238938057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64878892733564009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,12 +2426,96 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>분기요약!$B$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2019.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023.06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024.03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2024.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2024.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>분기요약!$B$10:$Y$10</c:f>
+              <c:f>분기요약!$B$10:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2250,6 +2587,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.20575221238938052</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1453287197231834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,10 +2770,12 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="274163856"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2449,6 +2791,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2480,6 +2823,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2487,7 +2831,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2537,6 +2880,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2607,10 +2951,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>분기요약!$B$2:$Y$2</c:f>
+              <c:f>분기요약!$B$2:$Z$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2019.03</c:v>
                 </c:pt>
@@ -2682,16 +3026,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2024.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>분기요약!$B$3:$Y$3</c:f>
+              <c:f>분기요약!$B$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2763,6 +3110,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,6 +3216,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2886,10 +3237,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>분기요약!$B$2:$Y$2</c:f>
+              <c:f>분기요약!$B$2:$Z$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2019.03</c:v>
                 </c:pt>
@@ -2961,16 +3312,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2024.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>분기요약!$B$11:$Y$11</c:f>
+              <c:f>분기요약!$B$11:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3042,6 +3396,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20415224913494809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3226,6 +3583,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="274143696"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3241,6 +3599,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3272,6 +3631,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3279,6 +3639,535 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>분기요약!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>매출YoY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>분기요약!$N$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2022.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>분기요약!$N$13:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.17004048582995951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23183391003460208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16233766233766234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21835443037974683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25465838509316768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17415730337078653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18435754189944134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21038961038961038</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11881188118811881</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38277511961722488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BE5-4506-8715-B2DFCAD40D0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>분기요약!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업이익YoY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>분기요약!$N$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2022.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>분기요약!$N$14:$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.15846994535519127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3902439024390244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22651933701657459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13207547169811321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0175438596491224E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22522522522522523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19574468085106383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12295081967213115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.720588235294118E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13523131672597866</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3392857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BE5-4506-8715-B2DFCAD40D0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="267824063"/>
+        <c:axId val="267828223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="267824063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267828223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="267828223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267824063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3355,6 +4244,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4400,7 +5329,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23857</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="433387" y="19726275"/>
+          <a:ext cx="6191295" cy="5229263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4410,8 +5885,8 @@
       <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>10584</xdr:rowOff>
     </xdr:to>
@@ -4440,16 +5915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>206373</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185964</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>677333</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
+      <xdr:rowOff>53976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4474,10 +5949,40 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176891</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4526,7 +6031,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4575,7 +6080,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4920,52 +6425,1319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D691EE-43D8-40E5-9929-1AE2A423A917}">
-  <dimension ref="B2:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <cols>
+    <col min="2" max="2" width="68.625" style="134" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="33.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="33.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="50.65">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="134" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="50.65">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="134" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="50.65">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="134" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="50.65">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="134" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="67.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="134" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="33.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="33.75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="134" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="50.65">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="50.65">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="134" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="33.75">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="134" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="134" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="134" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="33.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="134" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="50.65">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="134" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="50.65">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="134" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="33.75">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="134" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="134" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="33.75">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="33.75">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="134" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="33.75">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="134" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="33.75">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="134" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="50.65">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="50.65">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="134" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="50.65">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="134" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="33.75">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="134" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="50.65">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="134" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="33.75">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="134" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="134" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="33.75">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="134" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="134" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="134" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="33.75">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="134" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+    </row>
+    <row r="3" spans="1:12" ht="27">
+      <c r="A3" s="130"/>
+      <c r="B3" s="82">
+        <v>44166</v>
+      </c>
+      <c r="C3" s="82">
+        <v>44531</v>
+      </c>
+      <c r="D3" s="82">
+        <v>44896</v>
+      </c>
+      <c r="E3" s="82">
+        <v>45261</v>
+      </c>
+      <c r="F3" s="82">
+        <v>45627</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="131"/>
+      <c r="B4" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A5" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="89">
+        <v>874</v>
+      </c>
+      <c r="C5" s="89">
+        <v>988</v>
+      </c>
+      <c r="D5" s="87">
+        <v>1235</v>
+      </c>
+      <c r="E5" s="87">
+        <v>1503</v>
+      </c>
+      <c r="F5" s="87">
+        <v>1760</v>
+      </c>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A6" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="89">
+        <v>110</v>
+      </c>
+      <c r="C6" s="89">
+        <v>126</v>
+      </c>
+      <c r="D6" s="89">
+        <v>160</v>
+      </c>
+      <c r="E6" s="89">
+        <v>250</v>
+      </c>
+      <c r="F6" s="89">
+        <v>295</v>
+      </c>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.9" thickBot="1">
+      <c r="A7" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="89">
+        <v>110</v>
+      </c>
+      <c r="C7" s="89">
+        <v>126</v>
+      </c>
+      <c r="D7" s="89">
+        <v>160</v>
+      </c>
+      <c r="E7" s="89">
+        <v>250</v>
+      </c>
+      <c r="F7" s="89">
+        <v>295</v>
+      </c>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+    </row>
+    <row r="8" spans="1:12" ht="27.4" thickBot="1">
+      <c r="A8" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="89">
+        <v>110</v>
+      </c>
+      <c r="C8" s="89">
+        <v>119</v>
+      </c>
+      <c r="D8" s="89">
+        <v>165</v>
+      </c>
+      <c r="E8" s="89">
+        <v>277</v>
+      </c>
+      <c r="F8" s="89">
+        <v>345</v>
+      </c>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+    </row>
+    <row r="9" spans="1:12" ht="27.4" thickBot="1">
+      <c r="A9" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="89">
+        <v>110</v>
+      </c>
+      <c r="C9" s="89">
+        <v>115</v>
+      </c>
+      <c r="D9" s="89">
+        <v>175</v>
+      </c>
+      <c r="E9" s="89">
+        <v>259</v>
+      </c>
+      <c r="F9" s="89">
+        <v>303</v>
+      </c>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+    </row>
+    <row r="10" spans="1:12" ht="40.9" thickBot="1">
+      <c r="A10" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="89">
+        <v>110</v>
+      </c>
+      <c r="C10" s="89">
+        <v>115</v>
+      </c>
+      <c r="D10" s="89">
+        <v>175</v>
+      </c>
+      <c r="E10" s="89">
+        <v>259</v>
+      </c>
+      <c r="F10" s="89">
+        <v>305</v>
+      </c>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+    </row>
+    <row r="11" spans="1:12" ht="40.9" thickBot="1">
+      <c r="A11" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="90">
+        <v>-2</v>
+      </c>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A12" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="87">
+        <v>1860</v>
+      </c>
+      <c r="C12" s="87">
+        <v>1974</v>
+      </c>
+      <c r="D12" s="87">
+        <v>2268</v>
+      </c>
+      <c r="E12" s="87">
+        <v>2568</v>
+      </c>
+      <c r="F12" s="87">
+        <v>2970</v>
+      </c>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A13" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="89">
+        <v>215</v>
+      </c>
+      <c r="C13" s="89">
+        <v>230</v>
+      </c>
+      <c r="D13" s="89">
+        <v>364</v>
+      </c>
+      <c r="E13" s="89">
+        <v>360</v>
+      </c>
+      <c r="F13" s="89">
+        <v>502</v>
+      </c>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="87">
+        <v>1645</v>
+      </c>
+      <c r="C14" s="87">
+        <v>1744</v>
+      </c>
+      <c r="D14" s="87">
+        <v>1904</v>
+      </c>
+      <c r="E14" s="87">
+        <v>2208</v>
+      </c>
+      <c r="F14" s="87">
+        <v>2468</v>
+      </c>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" spans="1:12" ht="27.4" thickBot="1">
+      <c r="A15" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="87">
+        <v>1645</v>
+      </c>
+      <c r="C15" s="87">
+        <v>1744</v>
+      </c>
+      <c r="D15" s="87">
+        <v>1904</v>
+      </c>
+      <c r="E15" s="87">
+        <v>2208</v>
+      </c>
+      <c r="F15" s="87">
+        <v>2455</v>
+      </c>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="16" spans="1:12" ht="40.9" thickBot="1">
+      <c r="A16" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="89">
+        <v>14</v>
+      </c>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A17" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="89">
+        <v>107</v>
+      </c>
+      <c r="C17" s="89">
+        <v>107</v>
+      </c>
+      <c r="D17" s="89">
+        <v>107</v>
+      </c>
+      <c r="E17" s="89">
+        <v>107</v>
+      </c>
+      <c r="F17" s="89">
+        <v>107</v>
+      </c>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+    </row>
+    <row r="18" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A18" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="89">
+        <v>68</v>
+      </c>
+      <c r="C18" s="89">
+        <v>126</v>
+      </c>
+      <c r="D18" s="89">
+        <v>249</v>
+      </c>
+      <c r="E18" s="89">
+        <v>256</v>
+      </c>
+      <c r="F18" s="89">
+        <v>360</v>
+      </c>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+    </row>
+    <row r="19" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A19" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="90">
+        <v>-442</v>
+      </c>
+      <c r="C19" s="89">
+        <v>138</v>
+      </c>
+      <c r="D19" s="90">
+        <v>-334</v>
+      </c>
+      <c r="E19" s="90">
+        <v>-208</v>
+      </c>
+      <c r="F19" s="90">
+        <v>-192</v>
+      </c>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+    </row>
+    <row r="20" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A20" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="89">
+        <v>498</v>
+      </c>
+      <c r="C20" s="90">
+        <v>-51</v>
+      </c>
+      <c r="D20" s="89">
+        <v>32</v>
+      </c>
+      <c r="E20" s="89">
+        <v>79</v>
+      </c>
+      <c r="F20" s="90">
+        <v>-11</v>
+      </c>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A21" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="89">
+        <v>181</v>
+      </c>
+      <c r="C21" s="89">
+        <v>141</v>
+      </c>
+      <c r="D21" s="89">
+        <v>319</v>
+      </c>
+      <c r="E21" s="89">
+        <v>211</v>
+      </c>
+      <c r="F21" s="89">
+        <v>198</v>
+      </c>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A22" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="90">
+        <v>-113</v>
+      </c>
+      <c r="C22" s="90">
+        <v>-15</v>
+      </c>
+      <c r="D22" s="90">
+        <v>-70</v>
+      </c>
+      <c r="E22" s="89">
+        <v>44</v>
+      </c>
+      <c r="F22" s="89">
+        <v>163</v>
+      </c>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+    </row>
+    <row r="23" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A23" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="89">
+        <v>80</v>
+      </c>
+      <c r="C23" s="89">
+        <v>43</v>
+      </c>
+      <c r="D23" s="89">
+        <v>102</v>
+      </c>
+      <c r="E23" s="89">
+        <v>120</v>
+      </c>
+      <c r="F23" s="89">
+        <v>169</v>
+      </c>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+    </row>
+    <row r="24" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A24" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="89">
+        <v>12.63</v>
+      </c>
+      <c r="C24" s="89">
+        <v>12.76</v>
+      </c>
+      <c r="D24" s="89">
+        <v>12.96</v>
+      </c>
+      <c r="E24" s="89">
+        <v>16.66</v>
+      </c>
+      <c r="F24" s="89">
+        <v>16.75</v>
+      </c>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A25" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="89">
+        <v>12.58</v>
+      </c>
+      <c r="C25" s="89">
+        <v>11.63</v>
+      </c>
+      <c r="D25" s="89">
+        <v>14.14</v>
+      </c>
+      <c r="E25" s="89">
+        <v>17.2</v>
+      </c>
+      <c r="F25" s="89">
+        <v>17.22</v>
+      </c>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A26" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="99"/>
+      <c r="C26" s="89">
+        <v>6.79</v>
+      </c>
+      <c r="D26" s="89">
+        <v>9.57</v>
+      </c>
+      <c r="E26" s="89">
+        <v>12.58</v>
+      </c>
+      <c r="F26" s="89">
+        <v>13.07</v>
+      </c>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A27" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="99"/>
+      <c r="C27" s="89">
+        <v>6</v>
+      </c>
+      <c r="D27" s="89">
+        <v>8.23</v>
+      </c>
+      <c r="E27" s="89">
+        <v>10.7</v>
+      </c>
+      <c r="F27" s="89">
+        <v>10.95</v>
+      </c>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A28" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="89">
+        <v>13.09</v>
+      </c>
+      <c r="C28" s="89">
+        <v>13.19</v>
+      </c>
+      <c r="D28" s="89">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E28" s="89">
+        <v>16.29</v>
+      </c>
+      <c r="F28" s="89">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+    </row>
+    <row r="29" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A29" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="91">
+        <v>1454.6</v>
+      </c>
+      <c r="C29" s="91">
+        <v>1545.53</v>
+      </c>
+      <c r="D29" s="91">
+        <v>1691.98</v>
+      </c>
+      <c r="E29" s="91">
+        <v>1966.23</v>
+      </c>
+      <c r="F29" s="91">
+        <v>2241.69</v>
+      </c>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A30" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="89">
+        <v>539</v>
+      </c>
+      <c r="C30" s="89">
+        <v>536</v>
+      </c>
+      <c r="D30" s="89">
+        <v>814</v>
+      </c>
+      <c r="E30" s="87">
+        <v>1205</v>
+      </c>
+      <c r="F30" s="87">
+        <v>1421</v>
+      </c>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A31" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="89">
+        <v>80.67</v>
+      </c>
+      <c r="C31" s="89">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="D31" s="89">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="E31" s="89">
+        <v>37.58</v>
+      </c>
+      <c r="F31" s="89">
+        <v>18.02</v>
+      </c>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A32" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="87">
+        <v>7896</v>
+      </c>
+      <c r="C32" s="87">
+        <v>8374</v>
+      </c>
+      <c r="D32" s="87">
+        <v>9140</v>
+      </c>
+      <c r="E32" s="87">
+        <v>10499</v>
+      </c>
+      <c r="F32" s="87">
+        <v>11785</v>
+      </c>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A33" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="89">
+        <v>5.51</v>
+      </c>
+      <c r="C33" s="89">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D33" s="89">
+        <v>2.88</v>
+      </c>
+      <c r="E33" s="89">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F33" s="89">
+        <v>2.17</v>
+      </c>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+    </row>
+    <row r="34" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A34" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="89">
+        <v>80</v>
+      </c>
+      <c r="C34" s="89">
+        <v>100</v>
+      </c>
+      <c r="D34" s="89">
+        <v>150</v>
+      </c>
+      <c r="E34" s="89">
+        <v>150</v>
+      </c>
+      <c r="F34" s="89">
+        <v>150</v>
+      </c>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+    </row>
+    <row r="35" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A35" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="89">
+        <v>0.18</v>
+      </c>
+      <c r="C35" s="89">
+        <v>0.27</v>
+      </c>
+      <c r="D35" s="89">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E35" s="89">
+        <v>0.33</v>
+      </c>
+      <c r="F35" s="89">
+        <v>0.59</v>
+      </c>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+    </row>
+    <row r="36" spans="1:9" ht="27.4" thickBot="1">
+      <c r="A36" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="89">
+        <v>15.15</v>
+      </c>
+      <c r="C36" s="89">
+        <v>18.11</v>
+      </c>
+      <c r="D36" s="89">
+        <v>17.89</v>
+      </c>
+      <c r="E36" s="89">
+        <v>12.2</v>
+      </c>
+      <c r="F36" s="89">
+        <v>10.25</v>
+      </c>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+    </row>
+    <row r="37" spans="1:9" ht="40.9" thickBot="1">
+      <c r="A37" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="93">
+        <v>21451447</v>
+      </c>
+      <c r="C37" s="93">
+        <v>21451447</v>
+      </c>
+      <c r="D37" s="93">
+        <v>21451447</v>
+      </c>
+      <c r="E37" s="93">
+        <v>21451447</v>
+      </c>
+      <c r="F37" s="93">
+        <v>21451447</v>
+      </c>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" tooltip="분기" display="javascript:;"/>
+    <hyperlink ref="B1" r:id="rId2" tooltip="연간" display="javascript:;"/>
+    <hyperlink ref="C1" r:id="rId3" tooltip="분기" display="javascript:;"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="3" max="3" width="89.5" customWidth="1"/>
+    <col min="3" max="3" width="89.5" style="134" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="135" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="51.75" customHeight="1">
+    <row r="4" spans="2:4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="2:3" ht="51.75" customHeight="1">
+      <c r="C4" s="136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" ht="51.75" customHeight="1">
+      <c r="C5" s="136" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
+      <c r="C6" s="136" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="33.75">
+      <c r="B7" s="137">
+        <v>4</v>
+      </c>
+      <c r="C7" s="134" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="137"/>
+      <c r="C8" s="134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="137"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="67.5">
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" s="134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="50.65">
+      <c r="C14" s="134" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4974,18 +7746,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF0FA66-38E8-41A6-8042-49DEF9384F64}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:Q39"/>
+  <dimension ref="B2:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="K37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -5019,11 +7791,11 @@
       <c r="F3" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="133">
+      <c r="G3" s="117">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="97"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="51" t="s">
@@ -5038,13 +7810,13 @@
       <c r="E4" s="48">
         <v>48050</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="6">
         <v>21.77</v>
       </c>
@@ -5062,11 +7834,11 @@
       <c r="E5" s="48">
         <v>19010</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="96" t="s">
+      <c r="F5" s="125"/>
+      <c r="G5" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="97"/>
+      <c r="H5" s="116"/>
       <c r="I5" s="6">
         <v>8</v>
       </c>
@@ -5084,11 +7856,11 @@
       <c r="E6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="96" t="s">
+      <c r="F6" s="125"/>
+      <c r="G6" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="97"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="6">
         <v>2.9</v>
       </c>
@@ -5106,9 +7878,9 @@
       <c r="E7" s="49">
         <v>23.22</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:17">
@@ -5124,9 +7896,9 @@
       <c r="E8" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="128"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:17">
@@ -5157,10 +7929,10 @@
     </row>
     <row r="10" spans="2:17" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:17" ht="17.25" thickBot="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="115"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="14">
         <v>2017</v>
       </c>
@@ -5196,10 +7968,10 @@
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="104"/>
+      <c r="B12" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="119"/>
       <c r="D12" s="15">
         <f>연간손익!I2</f>
         <v>0</v>
@@ -5232,24 +8004,24 @@
         <f>연간손익!B2</f>
         <v>1760</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="100">
         <f>Sheet6!G5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="128">
+      <c r="M12" s="103">
         <f>Sheet6!H5</f>
         <v>0</v>
       </c>
-      <c r="N12" s="129">
+      <c r="N12" s="104">
         <f>Sheet6!I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="106"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="18">
         <f>연간손익!I3</f>
         <v>0</v>
@@ -5287,10 +8059,10 @@
       <c r="N13" s="67"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="106"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="18">
         <f>연간손익!I4</f>
         <v>0</v>
@@ -5328,10 +8100,10 @@
       <c r="N14" s="67"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="106"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="18">
         <f>연간손익!I5</f>
         <v>0</v>
@@ -5369,10 +8141,10 @@
       <c r="N15" s="67"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="106"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="18">
         <f>연간손익!I6</f>
         <v>0</v>
@@ -5405,24 +8177,24 @@
         <f>연간손익!B6</f>
         <v>295</v>
       </c>
-      <c r="L16" s="126">
+      <c r="L16" s="101">
         <f>Sheet6!G6</f>
         <v>0</v>
       </c>
-      <c r="M16" s="130">
+      <c r="M16" s="105">
         <f>Sheet6!H6</f>
         <v>0</v>
       </c>
-      <c r="N16" s="131">
+      <c r="N16" s="106">
         <f>Sheet6!I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="111"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="21">
         <f>연간손익!I14</f>
         <v>0</v>
@@ -5455,21 +8227,21 @@
         <f>연간손익!B14</f>
         <v>303</v>
       </c>
-      <c r="L17" s="127">
+      <c r="L17" s="102">
         <f>Sheet6!G9</f>
         <v>0</v>
       </c>
-      <c r="M17" s="132">
+      <c r="M17" s="107">
         <f>Sheet6!H9</f>
         <v>0</v>
       </c>
       <c r="N17" s="70"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="24">
         <f>연간재무!I31</f>
         <v>0</v>
@@ -5507,10 +8279,10 @@
       <c r="N18" s="58"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="113"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="27">
         <f>연간재무!I17</f>
         <v>0</v>
@@ -5548,10 +8320,10 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="113"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="27">
         <f>연간재무!I24</f>
         <v>0</v>
@@ -5589,10 +8361,10 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="113"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="27">
         <f>SUM(D19:D20)</f>
         <v>0</v>
@@ -5630,10 +8402,10 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="106"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="27">
         <f>연간재무!I34</f>
         <v>0</v>
@@ -5671,10 +8443,10 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="106"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="27">
         <f>연간재무!I8</f>
         <v>0</v>
@@ -5712,10 +8484,10 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="111"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="21">
         <f>연간재무!I9</f>
         <v>0</v>
@@ -5753,10 +8525,10 @@
       <c r="N24" s="73"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="104"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="24">
         <f>연간현금!I3</f>
         <v>0</v>
@@ -5794,10 +8566,10 @@
       <c r="N25" s="64"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="106"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="27">
         <f>연간현금!I4</f>
         <v>0</v>
@@ -5835,10 +8607,10 @@
       <c r="N26" s="67"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="106"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="27">
         <f>연간현금!I5</f>
         <v>0</v>
@@ -5876,10 +8648,10 @@
       <c r="N27" s="67"/>
     </row>
     <row r="28" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="111"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="21">
         <f>연간현금!I10</f>
         <v>0</v>
@@ -5917,10 +8689,10 @@
       <c r="N28" s="70"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="31" t="str">
         <f>기본정보!I24</f>
         <v>N/A</v>
@@ -5958,10 +8730,10 @@
       <c r="N29" s="64"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="106"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="34">
         <f>기본정보!I25</f>
         <v>1.2E-2</v>
@@ -5999,10 +8771,10 @@
       <c r="N30" s="67"/>
     </row>
     <row r="31" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="111"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="21">
         <f>기본정보!I26</f>
         <v>176</v>
@@ -6040,10 +8812,10 @@
       <c r="N31" s="70"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="104"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="15">
         <f>기본정보!I5</f>
         <v>0</v>
@@ -6081,10 +8853,10 @@
       <c r="N32" s="76"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="106"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="18">
         <f>기본정보!I6</f>
         <v>0</v>
@@ -6122,10 +8894,10 @@
       <c r="N33" s="54"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="106"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="37" t="str">
         <f>기본정보!I7</f>
         <v>N/A</v>
@@ -6163,10 +8935,10 @@
       <c r="N34" s="54"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="37">
         <f>기본정보!I8</f>
         <v>0</v>
@@ -6204,10 +8976,10 @@
       <c r="N35" s="54"/>
     </row>
     <row r="36" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="109"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="40">
         <f>기본정보!I9</f>
         <v>0</v>
@@ -6245,198 +9017,249 @@
       <c r="N36" s="56"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="C37" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="139" t="e">
+        <f>D16/D12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="139" t="e">
+        <f t="shared" ref="E37:N37" si="1">E16/E12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="139" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="139">
+        <f t="shared" si="1"/>
+        <v>0.12585812356979406</v>
+      </c>
+      <c r="H37" s="139">
+        <f t="shared" si="1"/>
+        <v>0.12753036437246965</v>
+      </c>
+      <c r="I37" s="139">
+        <f t="shared" si="1"/>
+        <v>0.12955465587044535</v>
+      </c>
+      <c r="J37" s="139">
+        <f t="shared" si="1"/>
+        <v>0.16633399866932802</v>
+      </c>
+      <c r="K37" s="139">
+        <f t="shared" si="1"/>
+        <v>0.16761363636363635</v>
+      </c>
+      <c r="L37" s="139" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="139" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="139" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="C38" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="122" t="e">
+      <c r="E38" s="97" t="e">
         <f>(E12-D12)/D12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="122" t="e">
-        <f t="shared" ref="F37:N37" si="1">(F12-E12)/E12</f>
+      <c r="F38" s="97" t="e">
+        <f t="shared" ref="F38:N38" si="2">(F12-E12)/E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="122" t="e">
-        <f t="shared" si="1"/>
+      <c r="G38" s="97" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="122">
-        <f t="shared" si="1"/>
+      <c r="H38" s="97">
+        <f t="shared" si="2"/>
         <v>0.13043478260869565</v>
       </c>
-      <c r="I37" s="122">
-        <f t="shared" si="1"/>
+      <c r="I38" s="97">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J37" s="122">
-        <f t="shared" si="1"/>
+      <c r="J38" s="97">
+        <f t="shared" si="2"/>
         <v>0.21700404858299596</v>
       </c>
-      <c r="K37" s="122">
-        <f t="shared" si="1"/>
+      <c r="K38" s="97">
+        <f t="shared" si="2"/>
         <v>0.17099135063206919</v>
       </c>
-      <c r="L37" s="122">
-        <f t="shared" si="1"/>
+      <c r="L38" s="97">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="M37" s="122" t="e">
-        <f t="shared" si="1"/>
+      <c r="M38" s="97" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="122" t="e">
-        <f t="shared" si="1"/>
+      <c r="N38" s="97" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
-      <c r="C38" t="s">
+    <row r="39" spans="2:14">
+      <c r="C39" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="122" t="e">
+      <c r="E39" s="97" t="e">
         <f>(E16-D16)/ABS(D16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="122" t="e">
-        <f t="shared" ref="F38:N38" si="2">(F16-E16)/ABS(E16)</f>
+      <c r="F39" s="97" t="e">
+        <f t="shared" ref="F39:N39" si="3">(F16-E16)/ABS(E16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="122" t="e">
-        <f t="shared" si="2"/>
+      <c r="G39" s="97" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="122">
-        <f t="shared" si="2"/>
+      <c r="H39" s="97">
+        <f t="shared" si="3"/>
         <v>0.14545454545454545</v>
       </c>
-      <c r="I38" s="122">
-        <f t="shared" si="2"/>
+      <c r="I39" s="97">
+        <f t="shared" si="3"/>
         <v>0.26984126984126983</v>
       </c>
-      <c r="J38" s="122">
-        <f t="shared" si="2"/>
+      <c r="J39" s="97">
+        <f t="shared" si="3"/>
         <v>0.5625</v>
       </c>
-      <c r="K38" s="122">
-        <f t="shared" si="2"/>
+      <c r="K39" s="97">
+        <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
-      <c r="L38" s="122">
-        <f t="shared" si="2"/>
+      <c r="L39" s="97">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M38" s="122" t="e">
-        <f t="shared" si="2"/>
+      <c r="M39" s="97" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="122" t="e">
-        <f t="shared" si="2"/>
+      <c r="N39" s="97" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
-      <c r="C39" t="s">
+    <row r="40" spans="2:14">
+      <c r="C40" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="122" t="e">
+      <c r="E40" s="97" t="e">
         <f>(E17-D17)/ABS(D17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="122" t="e">
-        <f t="shared" ref="F39:N39" si="3">(F17-E17)/ABS(E17)</f>
+      <c r="F40" s="97" t="e">
+        <f t="shared" ref="F40:N40" si="4">(F17-E17)/ABS(E17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="122" t="e">
-        <f t="shared" si="3"/>
+      <c r="G40" s="97" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="122">
-        <f t="shared" si="3"/>
+      <c r="H40" s="97">
+        <f t="shared" si="4"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="I39" s="122">
-        <f t="shared" si="3"/>
+      <c r="I40" s="97">
+        <f t="shared" si="4"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="J39" s="122">
-        <f t="shared" si="3"/>
+      <c r="J40" s="97">
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
-      <c r="K39" s="122">
-        <f t="shared" si="3"/>
+      <c r="K40" s="97">
+        <f t="shared" si="4"/>
         <v>0.16988416988416988</v>
       </c>
-      <c r="L39" s="122">
-        <f t="shared" si="3"/>
+      <c r="L40" s="97">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="M39" s="122" t="e">
-        <f t="shared" si="3"/>
+      <c r="M40" s="97" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="122" t="e">
-        <f t="shared" si="3"/>
+      <c r="N40" s="97" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FE423B-9BE0-4FF9-8FAF-8757BA6750BD}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="B1">
         <v>24</v>
       </c>
@@ -6510,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="B2">
         <v>2019.03</v>
       </c>
@@ -6583,8 +9406,11 @@
       <c r="Y2">
         <v>2024.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2">
+        <v>2025.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6684,8 +9510,11 @@
         <f>분기손익!B2</f>
         <v>452</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6785,8 +9614,11 @@
         <f>분기손익!B3</f>
         <v>319</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6886,8 +9718,11 @@
         <f>분기손익!B4</f>
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6987,8 +9822,11 @@
         <f>분기손익!B5</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7088,8 +9926,11 @@
         <f>분기손익!B6</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -7189,413 +10030,546 @@
         <f>분기손익!B14</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="121" t="s">
+      <c r="Z8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="123" t="e">
+      <c r="B9" s="98" t="e">
         <f>B4/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C9" s="123" t="e">
+      <c r="C9" s="98" t="e">
         <f t="shared" ref="C9:Y9" si="0">C4/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D9" s="123" t="e">
+      <c r="D9" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="123" t="e">
+      <c r="E9" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="123" t="e">
+      <c r="F9" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="123" t="e">
+      <c r="G9" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="123">
+      <c r="H9" s="98">
         <f t="shared" si="0"/>
         <v>0.76354679802955661</v>
       </c>
-      <c r="I9" s="123">
+      <c r="I9" s="98">
         <f t="shared" si="0"/>
         <v>0.77083333333333337</v>
       </c>
-      <c r="J9" s="123">
+      <c r="J9" s="98">
         <f t="shared" si="0"/>
         <v>0.74089068825910931</v>
       </c>
-      <c r="K9" s="123">
+      <c r="K9" s="98">
         <f t="shared" si="0"/>
         <v>0.72888888888888892</v>
       </c>
-      <c r="L9" s="123">
+      <c r="L9" s="98">
         <f t="shared" si="0"/>
         <v>0.75416666666666665</v>
       </c>
-      <c r="M9" s="123">
+      <c r="M9" s="98">
         <f t="shared" si="0"/>
         <v>0.72463768115942029</v>
       </c>
-      <c r="N9" s="123">
+      <c r="N9" s="98">
         <f t="shared" si="0"/>
         <v>0.73356401384083048</v>
       </c>
-      <c r="O9" s="123">
+      <c r="O9" s="98">
         <f t="shared" si="0"/>
         <v>0.74025974025974028</v>
       </c>
-      <c r="P9" s="123">
+      <c r="P9" s="98">
         <f t="shared" si="0"/>
         <v>0.70253164556962022</v>
       </c>
-      <c r="Q9" s="123">
+      <c r="Q9" s="98">
         <f t="shared" si="0"/>
         <v>0.72981366459627328</v>
       </c>
-      <c r="R9" s="123">
+      <c r="R9" s="98">
         <f t="shared" si="0"/>
         <v>0.6741573033707865</v>
       </c>
-      <c r="S9" s="123">
+      <c r="S9" s="98">
         <f t="shared" si="0"/>
         <v>0.68156424581005581</v>
       </c>
-      <c r="T9" s="123">
+      <c r="T9" s="98">
         <f t="shared" si="0"/>
         <v>0.70649350649350651</v>
       </c>
-      <c r="U9" s="123">
+      <c r="U9" s="98">
         <f t="shared" si="0"/>
         <v>0.6955445544554455</v>
       </c>
-      <c r="V9" s="123">
+      <c r="V9" s="98">
         <f t="shared" si="0"/>
         <v>0.66985645933014359</v>
       </c>
-      <c r="W9" s="123">
+      <c r="W9" s="98">
         <f t="shared" si="0"/>
         <v>0.64622641509433965</v>
       </c>
-      <c r="X9" s="123">
+      <c r="X9" s="98">
         <f t="shared" si="0"/>
         <v>0.628755364806867</v>
       </c>
-      <c r="Y9" s="123">
+      <c r="Y9" s="98">
         <f t="shared" si="0"/>
         <v>0.70575221238938057</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="121" t="s">
+      <c r="Z9" s="98">
+        <f t="shared" ref="Z9" si="1">Z4/Z3</f>
+        <v>0.64878892733564009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="123" t="e">
+      <c r="B10" s="98" t="e">
         <f>B6/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C10" s="123" t="e">
-        <f t="shared" ref="C10:Y10" si="1">C6/C3</f>
+      <c r="C10" s="98" t="e">
+        <f t="shared" ref="C10:Y10" si="2">C6/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D10" s="123" t="e">
-        <f t="shared" si="1"/>
+      <c r="D10" s="98" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="123" t="e">
-        <f t="shared" si="1"/>
+      <c r="E10" s="98" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="123" t="e">
-        <f t="shared" si="1"/>
+      <c r="F10" s="98" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="123" t="e">
-        <f t="shared" si="1"/>
+      <c r="G10" s="98" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="123">
-        <f t="shared" si="1"/>
+      <c r="H10" s="98">
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I10" s="123">
-        <f t="shared" si="1"/>
+      <c r="I10" s="98">
+        <f t="shared" si="2"/>
         <v>0.15104166666666666</v>
       </c>
-      <c r="J10" s="123">
-        <f t="shared" si="1"/>
+      <c r="J10" s="98">
+        <f t="shared" si="2"/>
         <v>0.13765182186234817</v>
       </c>
-      <c r="K10" s="123">
-        <f t="shared" si="1"/>
+      <c r="K10" s="98">
+        <f t="shared" si="2"/>
         <v>0.15111111111111111</v>
       </c>
-      <c r="L10" s="123">
-        <f t="shared" si="1"/>
+      <c r="L10" s="98">
+        <f t="shared" si="2"/>
         <v>0.15833333333333333</v>
       </c>
-      <c r="M10" s="123">
-        <f t="shared" si="1"/>
+      <c r="M10" s="98">
+        <f t="shared" si="2"/>
         <v>0.10507246376811594</v>
       </c>
-      <c r="N10" s="123">
-        <f t="shared" si="1"/>
+      <c r="N10" s="98">
+        <f t="shared" si="2"/>
         <v>0.14186851211072665</v>
       </c>
-      <c r="O10" s="123">
-        <f t="shared" si="1"/>
+      <c r="O10" s="98">
+        <f t="shared" si="2"/>
         <v>0.1461038961038961</v>
       </c>
-      <c r="P10" s="123">
-        <f t="shared" si="1"/>
+      <c r="P10" s="98">
+        <f t="shared" si="2"/>
         <v>0.14240506329113925</v>
       </c>
-      <c r="Q10" s="123">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="98">
+        <f t="shared" si="2"/>
         <v>0.14596273291925466</v>
       </c>
-      <c r="R10" s="123">
-        <f t="shared" si="1"/>
+      <c r="R10" s="98">
+        <f t="shared" si="2"/>
         <v>0.12921348314606743</v>
       </c>
-      <c r="S10" s="123">
-        <f t="shared" si="1"/>
+      <c r="S10" s="98">
+        <f t="shared" si="2"/>
         <v>0.14525139664804471</v>
       </c>
-      <c r="T10" s="123">
-        <f t="shared" si="1"/>
+      <c r="T10" s="98">
+        <f t="shared" si="2"/>
         <v>0.14805194805194805</v>
       </c>
-      <c r="U10" s="123">
-        <f t="shared" si="1"/>
+      <c r="U10" s="98">
+        <f t="shared" si="2"/>
         <v>0.15099009900990099</v>
       </c>
-      <c r="V10" s="123">
-        <f t="shared" si="1"/>
+      <c r="V10" s="98">
+        <f t="shared" si="2"/>
         <v>0.15311004784688995</v>
       </c>
-      <c r="W10" s="123">
-        <f t="shared" si="1"/>
+      <c r="W10" s="98">
+        <f t="shared" si="2"/>
         <v>0.15566037735849056</v>
       </c>
-      <c r="X10" s="123">
-        <f t="shared" si="1"/>
+      <c r="X10" s="98">
+        <f t="shared" si="2"/>
         <v>0.16523605150214593</v>
       </c>
-      <c r="Y10" s="123">
-        <f t="shared" si="1"/>
+      <c r="Y10" s="98">
+        <f t="shared" si="2"/>
         <v>0.20575221238938052</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="121" t="s">
+      <c r="Z10" s="98">
+        <f t="shared" ref="Z10" si="3">Z6/Z3</f>
+        <v>0.1453287197231834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="123" t="e">
+      <c r="B11" s="98" t="e">
         <f>B7/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C11" s="123" t="e">
-        <f t="shared" ref="C11:Y11" si="2">C7/C3</f>
+      <c r="C11" s="98" t="e">
+        <f t="shared" ref="C11:Y11" si="4">C7/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D11" s="123" t="e">
-        <f t="shared" si="2"/>
+      <c r="D11" s="98" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="123" t="e">
-        <f t="shared" si="2"/>
+      <c r="E11" s="98" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="123" t="e">
-        <f t="shared" si="2"/>
+      <c r="F11" s="98" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="123" t="e">
-        <f t="shared" si="2"/>
+      <c r="G11" s="98" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="123">
-        <f t="shared" si="2"/>
+      <c r="H11" s="98">
+        <f t="shared" si="4"/>
         <v>9.3596059113300489E-2</v>
       </c>
-      <c r="I11" s="123">
-        <f t="shared" si="2"/>
+      <c r="I11" s="98">
+        <f t="shared" si="4"/>
         <v>7.8125E-2</v>
       </c>
-      <c r="J11" s="123">
-        <f t="shared" si="2"/>
+      <c r="J11" s="98">
+        <f t="shared" si="4"/>
         <v>0.12550607287449392</v>
       </c>
-      <c r="K11" s="123">
-        <f t="shared" si="2"/>
+      <c r="K11" s="98">
+        <f t="shared" si="4"/>
         <v>0.12444444444444444</v>
       </c>
-      <c r="L11" s="123">
-        <f t="shared" si="2"/>
+      <c r="L11" s="98">
+        <f t="shared" si="4"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M11" s="123">
-        <f t="shared" si="2"/>
+      <c r="M11" s="98">
+        <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="N11" s="123">
-        <f t="shared" si="2"/>
+      <c r="N11" s="98">
+        <f t="shared" si="4"/>
         <v>0.12110726643598616</v>
       </c>
-      <c r="O11" s="123">
-        <f t="shared" si="2"/>
+      <c r="O11" s="98">
+        <f t="shared" si="4"/>
         <v>0.11363636363636363</v>
       </c>
-      <c r="P11" s="123">
-        <f t="shared" si="2"/>
+      <c r="P11" s="98">
+        <f t="shared" si="4"/>
         <v>0.1550632911392405</v>
       </c>
-      <c r="Q11" s="123">
-        <f t="shared" si="2"/>
+      <c r="Q11" s="98">
+        <f t="shared" si="4"/>
         <v>0.12732919254658384</v>
       </c>
-      <c r="R11" s="123">
-        <f t="shared" si="2"/>
+      <c r="R11" s="98">
+        <f t="shared" si="4"/>
         <v>0.19662921348314608</v>
       </c>
-      <c r="S11" s="123">
-        <f t="shared" si="2"/>
+      <c r="S11" s="98">
+        <f t="shared" si="4"/>
         <v>0.17318435754189945</v>
       </c>
-      <c r="T11" s="123">
-        <f t="shared" si="2"/>
+      <c r="T11" s="98">
+        <f t="shared" si="4"/>
         <v>0.14805194805194805</v>
       </c>
-      <c r="U11" s="123">
-        <f t="shared" si="2"/>
+      <c r="U11" s="98">
+        <f t="shared" si="4"/>
         <v>0.15099009900990099</v>
       </c>
-      <c r="V11" s="123">
-        <f t="shared" si="2"/>
+      <c r="V11" s="98">
+        <f t="shared" si="4"/>
         <v>0.17703349282296652</v>
       </c>
-      <c r="W11" s="123">
-        <f t="shared" si="2"/>
+      <c r="W11" s="98">
+        <f t="shared" si="4"/>
         <v>0.20047169811320756</v>
       </c>
-      <c r="X11" s="123">
-        <f t="shared" si="2"/>
+      <c r="X11" s="98">
+        <f t="shared" si="4"/>
         <v>0.20600858369098712</v>
       </c>
-      <c r="Y11" s="123">
-        <f t="shared" si="2"/>
+      <c r="Y11" s="98">
+        <f t="shared" si="4"/>
         <v>8.8495575221238937E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="121" t="s">
+      <c r="Z11" s="98">
+        <f t="shared" ref="Z11" si="5">Z7/Z3</f>
+        <v>0.20415224913494809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="123" t="e">
+      <c r="B12" s="98" t="e">
         <f>B8/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" s="123" t="e">
-        <f t="shared" ref="C12:Y12" si="3">C8/C3</f>
+      <c r="C12" s="98" t="e">
+        <f t="shared" ref="C12:Y12" si="6">C8/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="123" t="e">
-        <f t="shared" si="3"/>
+      <c r="D12" s="98" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="123" t="e">
-        <f t="shared" si="3"/>
+      <c r="E12" s="98" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="123" t="e">
-        <f t="shared" si="3"/>
+      <c r="F12" s="98" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="123" t="e">
-        <f t="shared" si="3"/>
+      <c r="G12" s="98" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="123">
-        <f t="shared" si="3"/>
+      <c r="H12" s="98">
+        <f t="shared" si="6"/>
         <v>8.8669950738916259E-2</v>
       </c>
-      <c r="I12" s="123">
-        <f t="shared" si="3"/>
+      <c r="I12" s="98">
+        <f t="shared" si="6"/>
         <v>0.109375</v>
       </c>
-      <c r="J12" s="123">
-        <f t="shared" si="3"/>
+      <c r="J12" s="98">
+        <f t="shared" si="6"/>
         <v>0.1417004048582996</v>
       </c>
-      <c r="K12" s="123">
-        <f t="shared" si="3"/>
+      <c r="K12" s="98">
+        <f t="shared" si="6"/>
         <v>0.14222222222222222</v>
       </c>
-      <c r="L12" s="123">
-        <f t="shared" si="3"/>
+      <c r="L12" s="98">
+        <f t="shared" si="6"/>
         <v>9.583333333333334E-2</v>
       </c>
-      <c r="M12" s="123">
-        <f t="shared" si="3"/>
+      <c r="M12" s="98">
+        <f t="shared" si="6"/>
         <v>9.0579710144927536E-2</v>
       </c>
-      <c r="N12" s="123">
-        <f t="shared" si="3"/>
+      <c r="N12" s="98">
+        <f t="shared" si="6"/>
         <v>0.13148788927335639</v>
       </c>
-      <c r="O12" s="123">
-        <f t="shared" si="3"/>
+      <c r="O12" s="98">
+        <f t="shared" si="6"/>
         <v>0.11038961038961038</v>
       </c>
-      <c r="P12" s="123">
-        <f t="shared" si="3"/>
+      <c r="P12" s="98">
+        <f t="shared" si="6"/>
         <v>0.20253164556962025</v>
       </c>
-      <c r="Q12" s="123">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="98">
+        <f t="shared" si="6"/>
         <v>0.12111801242236025</v>
       </c>
-      <c r="R12" s="123">
-        <f t="shared" si="3"/>
+      <c r="R12" s="98">
+        <f t="shared" si="6"/>
         <v>0.2247191011235955</v>
       </c>
-      <c r="S12" s="123">
-        <f t="shared" si="3"/>
+      <c r="S12" s="98">
+        <f t="shared" si="6"/>
         <v>0.16201117318435754</v>
       </c>
-      <c r="T12" s="123">
-        <f t="shared" si="3"/>
+      <c r="T12" s="98">
+        <f t="shared" si="6"/>
         <v>0.16363636363636364</v>
       </c>
-      <c r="U12" s="123">
-        <f t="shared" si="3"/>
+      <c r="U12" s="98">
+        <f t="shared" si="6"/>
         <v>0.14356435643564355</v>
       </c>
-      <c r="V12" s="123">
-        <f t="shared" si="3"/>
+      <c r="V12" s="98">
+        <f t="shared" si="6"/>
         <v>0.18421052631578946</v>
       </c>
-      <c r="W12" s="123">
-        <f t="shared" si="3"/>
+      <c r="W12" s="98">
+        <f t="shared" si="6"/>
         <v>0.18396226415094338</v>
       </c>
-      <c r="X12" s="123">
-        <f t="shared" si="3"/>
+      <c r="X12" s="98">
+        <f t="shared" si="6"/>
         <v>0.17596566523605151</v>
       </c>
-      <c r="Y12" s="123">
-        <f t="shared" si="3"/>
+      <c r="Y12" s="98">
+        <f t="shared" si="6"/>
         <v>0.14601769911504425</v>
       </c>
+      <c r="Z12" s="98">
+        <f t="shared" ref="Z12" si="7">Z8/Z3</f>
+        <v>0.20588235294117646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" s="97">
+        <f>(N3-J3)/ABS(J3)</f>
+        <v>0.17004048582995951</v>
+      </c>
+      <c r="O13" s="97">
+        <f t="shared" ref="O13:Z13" si="8">(O3-K3)/ABS(K3)</f>
+        <v>0.36888888888888888</v>
+      </c>
+      <c r="P13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="Q13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.23183391003460208</v>
+      </c>
+      <c r="S13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.16233766233766234</v>
+      </c>
+      <c r="T13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.21835443037974683</v>
+      </c>
+      <c r="U13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.25465838509316768</v>
+      </c>
+      <c r="V13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.17415730337078653</v>
+      </c>
+      <c r="W13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.18435754189944134</v>
+      </c>
+      <c r="X13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.21038961038961038</v>
+      </c>
+      <c r="Y13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.11881188118811881</v>
+      </c>
+      <c r="Z13" s="97">
+        <f t="shared" si="8"/>
+        <v>0.38277511961722488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" s="97">
+        <f>(N4-J4)/ABS(J4)</f>
+        <v>0.15846994535519127</v>
+      </c>
+      <c r="O14" s="97">
+        <f t="shared" ref="O14:Z14" si="9">(O4-K4)/ABS(K4)</f>
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="P14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.22651933701657459</v>
+      </c>
+      <c r="Q14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="S14" s="97">
+        <f t="shared" si="9"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="T14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.22522522522522523</v>
+      </c>
+      <c r="U14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.19574468085106383</v>
+      </c>
+      <c r="V14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="W14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.12295081967213115</v>
+      </c>
+      <c r="X14" s="97">
+        <f t="shared" si="9"/>
+        <v>7.720588235294118E-2</v>
+      </c>
+      <c r="Y14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.13523131672597866</v>
+      </c>
+      <c r="Z14" s="97">
+        <f t="shared" si="9"/>
+        <v>0.3392857142857143</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:Y8">
+  <sortState columnSort="1" ref="B1:Y8">
     <sortCondition descending="1" ref="B1:Y1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7604,15 +10578,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E07D505-093A-4A5E-8CA4-3D3D2BC17DFD}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1">
@@ -8128,15 +11102,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0BB475-F6F0-4B23-AC91-87211244E7C3}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1">
@@ -9156,15 +12130,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EB9102-AAF7-478A-91B9-CCAA4A8F9B25}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1">
@@ -9447,15 +12421,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE3BAB0-1EE2-4AFF-A72D-E6099238C294}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1">
@@ -10332,15 +13306,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4D220A-CF2D-4798-9A75-5131B0536E96}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:BA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="B1">
@@ -12095,855 +15069,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F72336A-44E0-4959-AA02-BC5244FA6B61}">
-  <dimension ref="A1:L38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="116" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="119" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-    </row>
-    <row r="3" spans="1:12" ht="27">
-      <c r="A3" s="117"/>
-      <c r="B3" s="82">
-        <v>44166</v>
-      </c>
-      <c r="C3" s="82">
-        <v>44531</v>
-      </c>
-      <c r="D3" s="82">
-        <v>44896</v>
-      </c>
-      <c r="E3" s="82">
-        <v>45261</v>
-      </c>
-      <c r="F3" s="82">
-        <v>45627</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="118"/>
-      <c r="B4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A5" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="89">
-        <v>874</v>
-      </c>
-      <c r="C5" s="89">
-        <v>988</v>
-      </c>
-      <c r="D5" s="87">
-        <v>1235</v>
-      </c>
-      <c r="E5" s="87">
-        <v>1503</v>
-      </c>
-      <c r="F5" s="87">
-        <v>1760</v>
-      </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A6" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="89">
-        <v>110</v>
-      </c>
-      <c r="C6" s="89">
-        <v>126</v>
-      </c>
-      <c r="D6" s="89">
-        <v>160</v>
-      </c>
-      <c r="E6" s="89">
-        <v>250</v>
-      </c>
-      <c r="F6" s="89">
-        <v>295</v>
-      </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-    </row>
-    <row r="7" spans="1:12" ht="41.25" thickBot="1">
-      <c r="A7" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="89">
-        <v>110</v>
-      </c>
-      <c r="C7" s="89">
-        <v>126</v>
-      </c>
-      <c r="D7" s="89">
-        <v>160</v>
-      </c>
-      <c r="E7" s="89">
-        <v>250</v>
-      </c>
-      <c r="F7" s="89">
-        <v>295</v>
-      </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-    </row>
-    <row r="8" spans="1:12" ht="27.75" thickBot="1">
-      <c r="A8" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="89">
-        <v>110</v>
-      </c>
-      <c r="C8" s="89">
-        <v>119</v>
-      </c>
-      <c r="D8" s="89">
-        <v>165</v>
-      </c>
-      <c r="E8" s="89">
-        <v>277</v>
-      </c>
-      <c r="F8" s="89">
-        <v>345</v>
-      </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-    </row>
-    <row r="9" spans="1:12" ht="27.75" thickBot="1">
-      <c r="A9" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="89">
-        <v>110</v>
-      </c>
-      <c r="C9" s="89">
-        <v>115</v>
-      </c>
-      <c r="D9" s="89">
-        <v>175</v>
-      </c>
-      <c r="E9" s="89">
-        <v>259</v>
-      </c>
-      <c r="F9" s="89">
-        <v>303</v>
-      </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-    </row>
-    <row r="10" spans="1:12" ht="41.25" thickBot="1">
-      <c r="A10" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="89">
-        <v>110</v>
-      </c>
-      <c r="C10" s="89">
-        <v>115</v>
-      </c>
-      <c r="D10" s="89">
-        <v>175</v>
-      </c>
-      <c r="E10" s="89">
-        <v>259</v>
-      </c>
-      <c r="F10" s="89">
-        <v>305</v>
-      </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-    </row>
-    <row r="11" spans="1:12" ht="41.25" thickBot="1">
-      <c r="A11" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="90">
-        <v>-2</v>
-      </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A12" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="87">
-        <v>1860</v>
-      </c>
-      <c r="C12" s="87">
-        <v>1974</v>
-      </c>
-      <c r="D12" s="87">
-        <v>2268</v>
-      </c>
-      <c r="E12" s="87">
-        <v>2568</v>
-      </c>
-      <c r="F12" s="87">
-        <v>2970</v>
-      </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A13" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="89">
-        <v>215</v>
-      </c>
-      <c r="C13" s="89">
-        <v>230</v>
-      </c>
-      <c r="D13" s="89">
-        <v>364</v>
-      </c>
-      <c r="E13" s="89">
-        <v>360</v>
-      </c>
-      <c r="F13" s="89">
-        <v>502</v>
-      </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A14" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="87">
-        <v>1645</v>
-      </c>
-      <c r="C14" s="87">
-        <v>1744</v>
-      </c>
-      <c r="D14" s="87">
-        <v>1904</v>
-      </c>
-      <c r="E14" s="87">
-        <v>2208</v>
-      </c>
-      <c r="F14" s="87">
-        <v>2468</v>
-      </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-    </row>
-    <row r="15" spans="1:12" ht="27.75" thickBot="1">
-      <c r="A15" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="87">
-        <v>1645</v>
-      </c>
-      <c r="C15" s="87">
-        <v>1744</v>
-      </c>
-      <c r="D15" s="87">
-        <v>1904</v>
-      </c>
-      <c r="E15" s="87">
-        <v>2208</v>
-      </c>
-      <c r="F15" s="87">
-        <v>2455</v>
-      </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-    </row>
-    <row r="16" spans="1:12" ht="41.25" thickBot="1">
-      <c r="A16" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="89">
-        <v>14</v>
-      </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A17" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="89">
-        <v>107</v>
-      </c>
-      <c r="C17" s="89">
-        <v>107</v>
-      </c>
-      <c r="D17" s="89">
-        <v>107</v>
-      </c>
-      <c r="E17" s="89">
-        <v>107</v>
-      </c>
-      <c r="F17" s="89">
-        <v>107</v>
-      </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-    </row>
-    <row r="18" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A18" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="89">
-        <v>68</v>
-      </c>
-      <c r="C18" s="89">
-        <v>126</v>
-      </c>
-      <c r="D18" s="89">
-        <v>249</v>
-      </c>
-      <c r="E18" s="89">
-        <v>256</v>
-      </c>
-      <c r="F18" s="89">
-        <v>360</v>
-      </c>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-    </row>
-    <row r="19" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A19" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="90">
-        <v>-442</v>
-      </c>
-      <c r="C19" s="89">
-        <v>138</v>
-      </c>
-      <c r="D19" s="90">
-        <v>-334</v>
-      </c>
-      <c r="E19" s="90">
-        <v>-208</v>
-      </c>
-      <c r="F19" s="90">
-        <v>-192</v>
-      </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-    </row>
-    <row r="20" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A20" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="89">
-        <v>498</v>
-      </c>
-      <c r="C20" s="90">
-        <v>-51</v>
-      </c>
-      <c r="D20" s="89">
-        <v>32</v>
-      </c>
-      <c r="E20" s="89">
-        <v>79</v>
-      </c>
-      <c r="F20" s="90">
-        <v>-11</v>
-      </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A21" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="89">
-        <v>181</v>
-      </c>
-      <c r="C21" s="89">
-        <v>141</v>
-      </c>
-      <c r="D21" s="89">
-        <v>319</v>
-      </c>
-      <c r="E21" s="89">
-        <v>211</v>
-      </c>
-      <c r="F21" s="89">
-        <v>198</v>
-      </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A22" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="90">
-        <v>-113</v>
-      </c>
-      <c r="C22" s="90">
-        <v>-15</v>
-      </c>
-      <c r="D22" s="90">
-        <v>-70</v>
-      </c>
-      <c r="E22" s="89">
-        <v>44</v>
-      </c>
-      <c r="F22" s="89">
-        <v>163</v>
-      </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-    </row>
-    <row r="23" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A23" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="89">
-        <v>80</v>
-      </c>
-      <c r="C23" s="89">
-        <v>43</v>
-      </c>
-      <c r="D23" s="89">
-        <v>102</v>
-      </c>
-      <c r="E23" s="89">
-        <v>120</v>
-      </c>
-      <c r="F23" s="89">
-        <v>169</v>
-      </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-    </row>
-    <row r="24" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A24" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="89">
-        <v>12.63</v>
-      </c>
-      <c r="C24" s="89">
-        <v>12.76</v>
-      </c>
-      <c r="D24" s="89">
-        <v>12.96</v>
-      </c>
-      <c r="E24" s="89">
-        <v>16.66</v>
-      </c>
-      <c r="F24" s="89">
-        <v>16.75</v>
-      </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A25" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="89">
-        <v>12.58</v>
-      </c>
-      <c r="C25" s="89">
-        <v>11.63</v>
-      </c>
-      <c r="D25" s="89">
-        <v>14.14</v>
-      </c>
-      <c r="E25" s="89">
-        <v>17.2</v>
-      </c>
-      <c r="F25" s="89">
-        <v>17.22</v>
-      </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A26" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="89">
-        <v>6.79</v>
-      </c>
-      <c r="D26" s="89">
-        <v>9.57</v>
-      </c>
-      <c r="E26" s="89">
-        <v>12.58</v>
-      </c>
-      <c r="F26" s="89">
-        <v>13.07</v>
-      </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A27" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="124"/>
-      <c r="C27" s="89">
-        <v>6</v>
-      </c>
-      <c r="D27" s="89">
-        <v>8.23</v>
-      </c>
-      <c r="E27" s="89">
-        <v>10.7</v>
-      </c>
-      <c r="F27" s="89">
-        <v>10.95</v>
-      </c>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A28" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="89">
-        <v>13.09</v>
-      </c>
-      <c r="C28" s="89">
-        <v>13.19</v>
-      </c>
-      <c r="D28" s="89">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E28" s="89">
-        <v>16.29</v>
-      </c>
-      <c r="F28" s="89">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-    </row>
-    <row r="29" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A29" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="91">
-        <v>1454.6</v>
-      </c>
-      <c r="C29" s="91">
-        <v>1545.53</v>
-      </c>
-      <c r="D29" s="91">
-        <v>1691.98</v>
-      </c>
-      <c r="E29" s="91">
-        <v>1966.23</v>
-      </c>
-      <c r="F29" s="91">
-        <v>2241.69</v>
-      </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A30" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="89">
-        <v>539</v>
-      </c>
-      <c r="C30" s="89">
-        <v>536</v>
-      </c>
-      <c r="D30" s="89">
-        <v>814</v>
-      </c>
-      <c r="E30" s="87">
-        <v>1205</v>
-      </c>
-      <c r="F30" s="87">
-        <v>1421</v>
-      </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-    </row>
-    <row r="31" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A31" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="89">
-        <v>80.67</v>
-      </c>
-      <c r="C31" s="89">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="D31" s="89">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="E31" s="89">
-        <v>37.58</v>
-      </c>
-      <c r="F31" s="89">
-        <v>18.02</v>
-      </c>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-    </row>
-    <row r="32" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A32" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="87">
-        <v>7896</v>
-      </c>
-      <c r="C32" s="87">
-        <v>8374</v>
-      </c>
-      <c r="D32" s="87">
-        <v>9140</v>
-      </c>
-      <c r="E32" s="87">
-        <v>10499</v>
-      </c>
-      <c r="F32" s="87">
-        <v>11785</v>
-      </c>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A33" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="89">
-        <v>5.51</v>
-      </c>
-      <c r="C33" s="89">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="D33" s="89">
-        <v>2.88</v>
-      </c>
-      <c r="E33" s="89">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="F33" s="89">
-        <v>2.17</v>
-      </c>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-    </row>
-    <row r="34" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A34" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="89">
-        <v>80</v>
-      </c>
-      <c r="C34" s="89">
-        <v>100</v>
-      </c>
-      <c r="D34" s="89">
-        <v>150</v>
-      </c>
-      <c r="E34" s="89">
-        <v>150</v>
-      </c>
-      <c r="F34" s="89">
-        <v>150</v>
-      </c>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-    </row>
-    <row r="35" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A35" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="89">
-        <v>0.18</v>
-      </c>
-      <c r="C35" s="89">
-        <v>0.27</v>
-      </c>
-      <c r="D35" s="89">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E35" s="89">
-        <v>0.33</v>
-      </c>
-      <c r="F35" s="89">
-        <v>0.59</v>
-      </c>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-    </row>
-    <row r="36" spans="1:9" ht="27.75" thickBot="1">
-      <c r="A36" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="89">
-        <v>15.15</v>
-      </c>
-      <c r="C36" s="89">
-        <v>18.11</v>
-      </c>
-      <c r="D36" s="89">
-        <v>17.89</v>
-      </c>
-      <c r="E36" s="89">
-        <v>12.2</v>
-      </c>
-      <c r="F36" s="89">
-        <v>10.25</v>
-      </c>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-    </row>
-    <row r="37" spans="1:9" ht="41.25" thickBot="1">
-      <c r="A37" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="93">
-        <v>21451447</v>
-      </c>
-      <c r="C37" s="93">
-        <v>21451447</v>
-      </c>
-      <c r="D37" s="93">
-        <v>21451447</v>
-      </c>
-      <c r="E37" s="93">
-        <v>21451447</v>
-      </c>
-      <c r="F37" s="93">
-        <v>21451447</v>
-      </c>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-    </row>
-    <row r="38" spans="1:9" ht="17.25" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="분기" display="javascript:;" xr:uid="{0FDAE681-8C70-4792-AAB3-5EBE86EECBFF}"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="연간" display="javascript:;" xr:uid="{ABD6251E-D4BF-4498-997D-A7B629E043E1}"/>
-    <hyperlink ref="C1" r:id="rId3" tooltip="분기" display="javascript:;" xr:uid="{E84A4F6A-A56F-49A9-82B0-250AC21C5327}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
 </file>